--- a/notebook/20190723_confirm_zif268_emsa/zif_pi.xlsx
+++ b/notebook/20190723_confirm_zif268_emsa/zif_pi.xlsx
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4" count="4">
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>pI</t>
-  </si>
-  <si>
-    <t>pH 6.8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
   <si>
     <t>positive</t>
   </si>
@@ -92,26 +83,33 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -122,10 +120,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV4"/>
+  <dimension ref="A1:IV1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -133,18 +131,24 @@
     <col min="1" max="1" style="0" width="18.141766826923078" customWidth="1"/>
     <col min="2" max="2" style="1" width="6.428185096153847" customWidth="1"/>
     <col min="3" max="3" style="2" width="10.285096153846155" customWidth="1"/>
-    <col min="4" max="256" style="0" width="9.142307692307693"/>
+    <col min="4" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="13.5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>pI</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>pH 6.8</t>
+        </is>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -403,43 +407,77 @@
     <row r="2" spans="1:256" ht="13.5">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zif268</t>
+          <t>mWasabi</t>
         </is>
       </c>
       <c r="B2">
-        <v>9.9800000000000004</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>5.5800000000000001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
       </c>
     </row>
     <row r="3" spans="1:256" ht="13.5">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Zif268-mWasabi</t>
+          <t>Zif268</t>
         </is>
       </c>
       <c r="B3">
-        <v>8.3599999999999994</v>
+        <v>9.9800000000000004</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="13.5">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mWasabi</t>
+          <t>mWasabi-Zif268</t>
         </is>
       </c>
       <c r="B4">
-        <v>5.5800000000000001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
+        <v>8.3599999999999994</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256" ht="13.5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>repA</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>10.26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="13.5">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mWasabi-repA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>9.2400000000000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048575" spans="1:256">
+      <c r="B1048575" s="0"/>
+      <c r="C1048575" s="0"/>
+    </row>
+    <row r="1048576" spans="1:256">
+      <c r="B1048576" s="0"/>
+      <c r="C1048576" s="0"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -466,8 +504,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -494,8 +531,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
